--- a/CalculateOCRn.xlsx
+++ b/CalculateOCRn.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>Calculate OCRn for CTC mode</t>
   </si>
@@ -34,6 +34,111 @@
   </si>
   <si>
     <t>f_osc/Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C':   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cis': </t>
+  </si>
+  <si>
+    <t>D':</t>
+  </si>
+  <si>
+    <t>Dis':</t>
+  </si>
+  <si>
+    <t>E':</t>
+  </si>
+  <si>
+    <t>F':</t>
+  </si>
+  <si>
+    <t>Fis':</t>
+  </si>
+  <si>
+    <t>G':</t>
+  </si>
+  <si>
+    <t>Gis':</t>
+  </si>
+  <si>
+    <t>A':</t>
+  </si>
+  <si>
+    <t>Ais':</t>
+  </si>
+  <si>
+    <t>C":</t>
+  </si>
+  <si>
+    <t>Cis":</t>
+  </si>
+  <si>
+    <t>D":</t>
+  </si>
+  <si>
+    <t>Dis":</t>
+  </si>
+  <si>
+    <t>E":</t>
+  </si>
+  <si>
+    <t>F":</t>
+  </si>
+  <si>
+    <t>Fis":</t>
+  </si>
+  <si>
+    <t>G":</t>
+  </si>
+  <si>
+    <t>Gis":</t>
+  </si>
+  <si>
+    <t>A":</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>DO#</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>RE#</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SOL#</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>FA#</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>LA#</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>B'':</t>
+  </si>
+  <si>
+    <t>Frq 16Hz</t>
   </si>
 </sst>
 </file>
@@ -49,15 +154,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,18 +188,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -402,50 +557,1027 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A3:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>8000000</v>
-      </c>
-      <c r="B3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4915200</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B16" si="0">G5</f>
+        <v>130.81299999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>64</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D16" si="1">($A$13/2/$C$17/B5-1)</f>
+        <v>292.54880631129936</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ref="G5:G13" si="2">G17/2</f>
+        <v>130.81299999999999</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4915200</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>138.5915</v>
+      </c>
+      <c r="C6" s="2">
+        <v>64</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>276.07326928419133</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>138.5915</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>4915200</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>146.82749999999999</v>
+      </c>
+      <c r="C7" s="11">
+        <v>64</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="1"/>
+        <v>260.53138887469993</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>146.82749999999999</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4915200</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>155.5635</v>
+      </c>
+      <c r="C8" s="2">
+        <v>64</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>245.84453615404641</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>155.5635</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>4915200</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>164.81399999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>64</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>231.98991590520222</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>164.81399999999999</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>4915200</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>174.614</v>
+      </c>
+      <c r="C10" s="2">
+        <v>64</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>218.91363808171167</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>174.614</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>4915200</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>184.49700000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>207.13346558480623</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>184.49700000000001</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>4915200</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>195.9975</v>
+      </c>
+      <c r="C12" s="2">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>194.92086633758083</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>195.9975</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>4915200</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>207.6525</v>
+      </c>
+      <c r="C13" s="2">
+        <v>64</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>183.92433271932677</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>207.6525</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>4915200</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="C14" s="2">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>173.54545454545453</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2">
+        <f>G26/2</f>
+        <v>220</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>4915200</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>233.08</v>
+      </c>
+      <c r="C15" s="2">
+        <v>64</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
+        <v>163.7503003260683</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2">
+        <v>233.08</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>4915200</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>246.94</v>
+      </c>
+      <c r="C16" s="2">
+        <v>64</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="1"/>
+        <v>154.50336114035798</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2">
+        <v>246.94</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>4915200</v>
+      </c>
+      <c r="B17" s="4">
+        <f>G17</f>
+        <v>261.62599999999998</v>
+      </c>
+      <c r="C17" s="4">
+        <v>64</v>
+      </c>
+      <c r="D17" s="5">
+        <f>($A$13/2/$C$17/B17-1)</f>
+        <v>145.77440315564968</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>261.62599999999998</v>
+      </c>
+      <c r="H17" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>4915200</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" ref="B18:B38" si="3">G18</f>
+        <v>277.18299999999999</v>
+      </c>
+      <c r="C18" s="4">
+        <v>64</v>
+      </c>
+      <c r="D18" s="5">
+        <f>($A$13/2/$C$17/B18-1)</f>
+        <v>137.53663464209566</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="4">
+        <v>277.18299999999999</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>4915200</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" si="3"/>
+        <v>293.65499999999997</v>
+      </c>
+      <c r="C19" s="4">
+        <v>64</v>
+      </c>
+      <c r="D19" s="5">
+        <f>($A$13/2/$C$17/B19-1)</f>
+        <v>129.76569443734996</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="4">
+        <v>293.65499999999997</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>4915200</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="3"/>
+        <v>311.12700000000001</v>
+      </c>
+      <c r="C20" s="4">
+        <v>64</v>
+      </c>
+      <c r="D20" s="5">
+        <f>($A$13/2/$C$17/B20-1)</f>
+        <v>122.4222680770232</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4">
+        <v>311.12700000000001</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>4915200</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="3"/>
+        <v>329.62799999999999</v>
+      </c>
+      <c r="C21" s="4">
+        <v>64</v>
+      </c>
+      <c r="D21" s="5">
+        <f>($A$13/2/$C$17/B21-1)</f>
+        <v>115.49495795260111</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="4">
+        <v>329.62799999999999</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>4915200</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="3"/>
+        <v>349.22800000000001</v>
+      </c>
+      <c r="C22" s="4">
+        <v>64</v>
+      </c>
+      <c r="D22" s="5">
+        <f>($A$13/2/$C$17/B22-1)</f>
+        <v>108.95681904085583</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4">
+        <v>349.22800000000001</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>4915200</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="3"/>
+        <v>368.99400000000003</v>
+      </c>
+      <c r="C23" s="4">
+        <v>64</v>
+      </c>
+      <c r="D23" s="5">
+        <f>($A$13/2/$C$17/B23-1)</f>
+        <v>103.06673279240312</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4">
+        <v>368.99400000000003</v>
+      </c>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>4915200</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="3"/>
+        <v>391.995</v>
+      </c>
+      <c r="C24" s="4">
+        <v>64</v>
+      </c>
+      <c r="D24" s="5">
+        <f>($A$13/2/$C$17/B24-1)</f>
+        <v>96.960433168790416</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="4">
+        <v>391.995</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>4915200</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="3"/>
+        <v>415.30500000000001</v>
+      </c>
+      <c r="C25" s="4">
+        <v>64</v>
+      </c>
+      <c r="D25" s="5">
+        <f>($A$13/2/$C$17/B25-1)</f>
+        <v>91.462166359663385</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="4">
+        <v>415.30500000000001</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>4915200</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="C3">
-        <v>128</v>
-      </c>
-      <c r="D3">
-        <f>(A3/2/C3/B3-1)</f>
-        <v>70.022727272727266</v>
+      <c r="C26" s="4">
+        <v>64</v>
+      </c>
+      <c r="D26" s="5">
+        <f>($A$13/2/$C$17/B26-1)</f>
+        <v>86.272727272727266</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="4">
+        <v>440</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>4915200</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="3"/>
+        <v>466.16399999999999</v>
+      </c>
+      <c r="C27" s="4">
+        <v>64</v>
+      </c>
+      <c r="D27" s="5">
+        <f>($A$13/2/$C$17/B27-1)</f>
+        <v>81.374443328957199</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="4">
+        <v>466.16399999999999</v>
+      </c>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>4915200</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="3"/>
+        <v>493.88299999999998</v>
+      </c>
+      <c r="C28" s="4">
+        <v>64</v>
+      </c>
+      <c r="D28" s="5">
+        <f>($A$13/2/$C$17/B28-1)</f>
+        <v>76.7512082821235</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="4">
+        <v>493.88299999999998</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>4915200</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" si="3"/>
+        <v>523.25099999999998</v>
+      </c>
+      <c r="C29" s="6">
+        <v>64</v>
+      </c>
+      <c r="D29" s="7">
+        <f>($A$13/2/$C$17/B29-1)</f>
+        <v>72.387341830211511</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="6">
+        <v>523.25099999999998</v>
+      </c>
+      <c r="H29" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>4915200</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" si="3"/>
+        <v>554.36500000000001</v>
+      </c>
+      <c r="C30" s="6">
+        <v>64</v>
+      </c>
+      <c r="D30" s="7">
+        <f>($A$13/2/$C$17/B30-1)</f>
+        <v>68.268442271788444</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="6">
+        <v>554.36500000000001</v>
+      </c>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>4915200</v>
+      </c>
+      <c r="B31" s="6">
+        <f t="shared" si="3"/>
+        <v>587.33000000000004</v>
+      </c>
+      <c r="C31" s="6">
+        <v>64</v>
+      </c>
+      <c r="D31" s="7">
+        <f>($A$13/2/$C$17/B31-1)</f>
+        <v>64.380620775373302</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="6">
+        <v>587.33000000000004</v>
+      </c>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>4915200</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="3"/>
+        <v>622.25400000000002</v>
+      </c>
+      <c r="C32" s="6">
+        <v>64</v>
+      </c>
+      <c r="D32" s="7">
+        <f>($A$13/2/$C$17/B32-1)</f>
+        <v>60.711134038511602</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="6">
+        <v>622.25400000000002</v>
+      </c>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>4915200</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" si="3"/>
+        <v>659.255</v>
+      </c>
+      <c r="C33" s="6">
+        <v>64</v>
+      </c>
+      <c r="D33" s="7">
+        <f>($A$13/2/$C$17/B33-1)</f>
+        <v>57.247567329788929</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="6">
+        <v>659.255</v>
+      </c>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>4915200</v>
+      </c>
+      <c r="B34" s="6">
+        <f t="shared" si="3"/>
+        <v>698.45600000000002</v>
+      </c>
+      <c r="C34" s="6">
+        <v>64</v>
+      </c>
+      <c r="D34" s="7">
+        <f>($A$13/2/$C$17/B34-1)</f>
+        <v>53.978409520427917</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="6">
+        <v>698.45600000000002</v>
+      </c>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>4915200</v>
+      </c>
+      <c r="B35" s="6">
+        <f t="shared" si="3"/>
+        <v>739.98900000000003</v>
+      </c>
+      <c r="C35" s="6">
+        <v>64</v>
+      </c>
+      <c r="D35" s="7">
+        <f>($A$13/2/$C$17/B35-1)</f>
+        <v>50.892663269318867</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="6">
+        <v>739.98900000000003</v>
+      </c>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>4915200</v>
+      </c>
+      <c r="B36" s="6">
+        <f t="shared" si="3"/>
+        <v>783.99099999999999</v>
+      </c>
+      <c r="C36" s="6">
+        <v>64</v>
+      </c>
+      <c r="D36" s="7">
+        <f>($A$13/2/$C$17/B36-1)</f>
+        <v>47.980154108911968</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="6">
+        <v>783.99099999999999</v>
+      </c>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>4915200</v>
+      </c>
+      <c r="B37" s="6">
+        <f t="shared" si="3"/>
+        <v>830.60900000000004</v>
+      </c>
+      <c r="C37" s="6">
+        <v>64</v>
+      </c>
+      <c r="D37" s="7">
+        <f>($A$13/2/$C$17/B37-1)</f>
+        <v>45.231138839092758</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="6">
+        <v>830.60900000000004</v>
+      </c>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>4915200</v>
+      </c>
+      <c r="B38" s="6">
+        <f t="shared" si="3"/>
+        <v>880</v>
+      </c>
+      <c r="C38" s="6">
+        <v>64</v>
+      </c>
+      <c r="D38" s="7">
+        <f>($A$13/2/$C$17/B38-1)</f>
+        <v>42.636363636363633</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="6">
+        <f>G26*2</f>
+        <v>880</v>
+      </c>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>4915200</v>
+      </c>
+      <c r="B39" s="6">
+        <f t="shared" ref="B39:B40" si="4">G39</f>
+        <v>932.32799999999997</v>
+      </c>
+      <c r="C39" s="6">
+        <v>64</v>
+      </c>
+      <c r="D39" s="7">
+        <f>($A$13/2/$C$17/B39-1)</f>
+        <v>40.187221664478599</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" ref="G39:G40" si="5">G27*2</f>
+        <v>932.32799999999997</v>
+      </c>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>4915200</v>
+      </c>
+      <c r="B40" s="6">
+        <f t="shared" si="4"/>
+        <v>987.76599999999996</v>
+      </c>
+      <c r="C40" s="6">
+        <v>64</v>
+      </c>
+      <c r="D40" s="7">
+        <f>($A$13/2/$C$17/B40-1)</f>
+        <v>37.87560414106175</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="5"/>
+        <v>987.76599999999996</v>
+      </c>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4915200</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="6">G42</f>
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>1024</v>
+      </c>
+      <c r="D42" s="1">
+        <f>($A$13/2/C42/B42-1)</f>
+        <v>149</v>
+      </c>
+      <c r="F42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H17:H28"/>
+    <mergeCell ref="H5:H16"/>
+    <mergeCell ref="H29:H40"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
